--- a/Python/Python_Advance.xlsx
+++ b/Python/Python_Advance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="167">
   <si>
     <t xml:space="preserve">There are many advanced Python tutorials on the web. </t>
   </si>
@@ -750,6 +750,18 @@
   <si>
     <t>https://hackernoon.com/search?query=django&amp;refinementList%5Btags%5D%5B0%5D=django&amp;page=1&amp;configure%5BhitsPerPage%5D=12</t>
   </si>
+  <si>
+    <t>https://www.programiz.com/python-programming/generator</t>
+  </si>
+  <si>
+    <t>https://data-flair.training/blogs/python-quiz/</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>http://www.trytoprogram.com/python-programming/python-closures/</t>
+  </si>
 </sst>
 </file>
 
@@ -1299,7 +1311,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1443,6 +1455,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1486,7 +1499,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2850,48 +2865,48 @@
     </row>
     <row r="2" spans="1:16384" s="49" customFormat="1">
       <c r="A2" s="48"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
     </row>
     <row r="3" spans="1:16384" s="49" customFormat="1">
       <c r="A3" s="48"/>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
@@ -2910,22 +2925,22 @@
         <v>94</v>
       </c>
       <c r="C4" s="54"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
       <c r="T4" s="55"/>
@@ -2998,22 +3013,22 @@
     <row r="7" spans="1:16384" s="56" customFormat="1">
       <c r="A7" s="52"/>
       <c r="B7" s="63"/>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
       <c r="R7" s="55"/>
       <c r="S7" s="55"/>
       <c r="T7" s="55"/>
@@ -36079,7 +36094,7 @@
     </row>
     <row r="78" spans="1:14" s="69" customFormat="1" ht="25.8">
       <c r="A78" s="71"/>
-      <c r="D78" s="90" t="s">
+      <c r="D78" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -36103,7 +36118,7 @@
     </row>
     <row r="82" spans="1:4" s="69" customFormat="1" ht="25.8">
       <c r="A82" s="71"/>
-      <c r="D82" s="90" t="s">
+      <c r="D82" s="75" t="s">
         <v>160</v>
       </c>
     </row>
@@ -36251,150 +36266,150 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="3:8" ht="18" thickBot="1">
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="80" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F13" s="80"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F14" s="80"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F15" s="80"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="3:8" ht="15" thickBot="1">
-      <c r="F16" s="81"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="81" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="6:8" s="35" customFormat="1" ht="14.4" customHeight="1">
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="6:8" ht="15" customHeight="1" thickBot="1">
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
     </row>
     <row r="24" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F24" s="85" t="s">
+      <c r="F24" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="86" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="14.4" customHeight="1" thickBot="1">
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="6:8" ht="14.4" customHeight="1">
       <c r="F26" s="42"/>
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="83" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="42"/>
     </row>
     <row r="27" spans="6:8" ht="14.4" customHeight="1">
       <c r="F27" s="42"/>
-      <c r="G27" s="80"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="42"/>
     </row>
     <row r="28" spans="6:8" ht="14.4" customHeight="1">
       <c r="F28" s="42"/>
-      <c r="G28" s="80"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="42"/>
     </row>
     <row r="29" spans="6:8" ht="15" customHeight="1" thickBot="1">
       <c r="F29" s="43"/>
-      <c r="G29" s="81"/>
+      <c r="G29" s="82"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="84" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G31" s="84"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G32" s="84"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="7:7" ht="14.4" customHeight="1">
-      <c r="G33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="7:7" ht="15" customHeight="1">
-      <c r="G34" s="84"/>
+      <c r="G34" s="85"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="84"/>
+      <c r="G35" s="85"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="84"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="84"/>
+      <c r="G37" s="85"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="84"/>
+      <c r="G38" s="85"/>
     </row>
     <row r="39" spans="7:7" ht="18">
       <c r="G39" s="44"/>
@@ -36446,52 +36461,52 @@
       <c r="L3" s="29"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="3:12" ht="15.6" customHeight="1">
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
@@ -36559,24 +36574,24 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="31.2">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="1" t="s">
@@ -36622,26 +36637,66 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C8"/>
+  <dimension ref="B4:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="30"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:3">
-      <c r="B4" s="1"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>162</v>
       </c>
     </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="91"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="91"/>
+      <c r="C10" s="68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="91"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="91"/>
+      <c r="C12" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="91"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="91"/>
+      <c r="C14" s="68" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B14"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="C12" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Python/Python_Advance.xlsx
+++ b/Python/Python_Advance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="170">
   <si>
     <t xml:space="preserve">There are many advanced Python tutorials on the web. </t>
   </si>
@@ -763,7 +763,13 @@
     <t>http://www.trytoprogram.com/python-programming/python-closures/</t>
   </si>
   <si>
-    <t>http://www.trytoprogram.com/python-programming/python-property/</t>
+    <t>https://www.python-course.eu/python3_decorators.php</t>
+  </si>
+  <si>
+    <t>ML, science</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -1045,15 +1051,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,6 +1073,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1297,7 +1307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1305,8 +1315,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1452,6 +1463,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1495,11 +1518,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1855,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -2826,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="R94" sqref="R94"/>
     </sheetView>
   </sheetViews>
@@ -2861,48 +2885,48 @@
     </row>
     <row r="2" spans="1:16384" s="47" customFormat="1">
       <c r="A2" s="46"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
     </row>
     <row r="3" spans="1:16384" s="47" customFormat="1">
       <c r="A3" s="46"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="49"/>
@@ -2921,22 +2945,22 @@
         <v>94</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
       <c r="R4" s="53"/>
       <c r="S4" s="53"/>
       <c r="T4" s="53"/>
@@ -3009,22 +3033,22 @@
     <row r="7" spans="1:16384" s="54" customFormat="1">
       <c r="A7" s="50"/>
       <c r="B7" s="61"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
@@ -36213,7 +36237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
@@ -36262,150 +36286,150 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="3:8" ht="18" thickBot="1">
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="80"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="85" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F13" s="82"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F14" s="82"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F15" s="82"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="3:8" ht="15" thickBot="1">
-      <c r="F16" s="83"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="86" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
     </row>
     <row r="21" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
     </row>
     <row r="22" spans="6:8" s="35" customFormat="1" ht="14.4" customHeight="1">
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="6:8" ht="15" customHeight="1" thickBot="1">
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
     </row>
     <row r="24" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="91" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="14.4" customHeight="1" thickBot="1">
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="88"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="6:8" ht="14.4" customHeight="1">
       <c r="F26" s="42"/>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="88" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="42"/>
     </row>
     <row r="27" spans="6:8" ht="14.4" customHeight="1">
       <c r="F27" s="42"/>
-      <c r="G27" s="82"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="42"/>
     </row>
     <row r="28" spans="6:8" ht="14.4" customHeight="1">
       <c r="F28" s="42"/>
-      <c r="G28" s="82"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="42"/>
     </row>
     <row r="29" spans="6:8" ht="15" customHeight="1" thickBot="1">
       <c r="F29" s="43"/>
-      <c r="G29" s="83"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="89" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G31" s="86"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G32" s="86"/>
+      <c r="G32" s="90"/>
     </row>
     <row r="33" spans="7:7" ht="14.4" customHeight="1">
-      <c r="G33" s="86"/>
+      <c r="G33" s="90"/>
     </row>
     <row r="34" spans="7:7" ht="15" customHeight="1">
-      <c r="G34" s="86"/>
+      <c r="G34" s="90"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="86"/>
+      <c r="G35" s="90"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="86"/>
+      <c r="G36" s="90"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="86"/>
+      <c r="G37" s="90"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="86"/>
+      <c r="G38" s="90"/>
     </row>
     <row r="39" spans="7:7" ht="18">
       <c r="G39" s="44"/>
@@ -36433,8 +36457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -36457,52 +36481,52 @@
       <c r="L3" s="29"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="3:12" ht="15.6" customHeight="1">
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
@@ -36573,24 +36597,24 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="66" t="s">
@@ -36636,74 +36660,97 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C16"/>
+  <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="12.6640625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="77" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" s="66"/>
+    <row r="4" spans="2:5">
+      <c r="D4" s="66"/>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="92" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="78"/>
+      <c r="D8" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="E8" s="66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="92"/>
+    <row r="9" spans="2:5">
+      <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="92"/>
-      <c r="C10" s="66" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="79"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="66" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="92"/>
+    <row r="11" spans="2:5">
+      <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="66" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" s="80"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="66" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="92"/>
+    <row r="13" spans="2:5">
+      <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="92"/>
-      <c r="C14" s="66" t="s">
+    <row r="14" spans="2:5">
+      <c r="B14" s="78"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="66" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="92"/>
+    <row r="15" spans="2:5">
+      <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="92"/>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="2:5">
+      <c r="D16" s="96"/>
+      <c r="E16" s="66"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="D17" s="96"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="78"/>
+      <c r="C18" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="66" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="D8:D18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C12" r:id="rId2"/>
-    <hyperlink ref="C14" r:id="rId3"/>
-    <hyperlink ref="C10" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E14" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E18" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Python/Python_Advance.xlsx
+++ b/Python/Python_Advance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="topic" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="small_note" sheetId="6" r:id="rId6"/>
     <sheet name="youtube" sheetId="7" r:id="rId7"/>
     <sheet name="cool_src" sheetId="8" r:id="rId8"/>
+    <sheet name="OOP" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
   <si>
     <t xml:space="preserve">There are many advanced Python tutorials on the web. </t>
   </si>
@@ -771,14 +772,27 @@
   <si>
     <t>Amount</t>
   </si>
+  <si>
+    <t>https://www.python-course.eu/python3_object_oriented_programming.php</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1058,7 +1072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +1092,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1309,76 +1329,76 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1390,137 +1410,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1879,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A113" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -36286,45 +36308,45 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="3:8" ht="18" thickBot="1">
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="84"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="3:8" ht="14.4" customHeight="1">
       <c r="F12" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="93" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="14.4" customHeight="1">
       <c r="F13" s="86"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="3:8" ht="14.4" customHeight="1">
       <c r="F14" s="86"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="15" spans="3:8" ht="14.4" customHeight="1">
       <c r="F15" s="86"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="3:8" ht="15" thickBot="1">
       <c r="F16" s="87"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
     </row>
     <row r="17" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="85" t="s">
         <v>125</v>
       </c>
       <c r="G17" s="86" t="s">
@@ -36365,24 +36387,24 @@
       <c r="H23" s="87"/>
     </row>
     <row r="24" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F24" s="91" t="s">
+      <c r="F24" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="88" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="14.4" customHeight="1" thickBot="1">
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="92"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="89"/>
     </row>
     <row r="26" spans="6:8" ht="14.4" customHeight="1">
       <c r="F26" s="42"/>
-      <c r="G26" s="88" t="s">
+      <c r="G26" s="85" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="42"/>
@@ -36403,44 +36425,39 @@
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G30" s="89" t="s">
+      <c r="G30" s="83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G31" s="90"/>
+      <c r="G31" s="84"/>
     </row>
     <row r="32" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G32" s="90"/>
+      <c r="G32" s="84"/>
     </row>
     <row r="33" spans="7:7" ht="14.4" customHeight="1">
-      <c r="G33" s="90"/>
+      <c r="G33" s="84"/>
     </row>
     <row r="34" spans="7:7" ht="15" customHeight="1">
-      <c r="G34" s="90"/>
+      <c r="G34" s="84"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="90"/>
+      <c r="G35" s="84"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="90"/>
+      <c r="G36" s="84"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="90"/>
+      <c r="G37" s="84"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="90"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="7:7" ht="18">
       <c r="G39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="H12:H16"/>
@@ -36448,6 +36465,11 @@
     <mergeCell ref="F17:F23"/>
     <mergeCell ref="G17:G23"/>
     <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36662,7 +36684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -36755,4 +36777,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="6" spans="1:2" s="97" customFormat="1" ht="18">
+      <c r="A6" s="97" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/Python_Advance.xlsx
+++ b/Python/Python_Advance.xlsx
@@ -16,13 +16,15 @@
     <sheet name="youtube" sheetId="7" r:id="rId7"/>
     <sheet name="cool_src" sheetId="8" r:id="rId8"/>
     <sheet name="OOP" sheetId="9" r:id="rId9"/>
+    <sheet name="A or B" sheetId="10" r:id="rId10"/>
+    <sheet name="question-interview" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="205">
   <si>
     <t xml:space="preserve">There are many advanced Python tutorials on the web. </t>
   </si>
@@ -778,12 +780,164 @@
   <si>
     <t>BEST</t>
   </si>
+  <si>
+    <t>https://www.askpython.com/python</t>
+  </si>
+  <si>
+    <t>https://www.askpython.com/python/oops/object-oriented-programming-python</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10759099/difference-between-object-and-instance-in-python</t>
+  </si>
+  <si>
+    <t>Difference between object and instance in python?</t>
+  </si>
+  <si>
+    <t>http://kiennt.com/blog/2012/06/23/python-object-models.html</t>
+  </si>
+  <si>
+    <t>https://www.askpython.com/python/oops/encapsulation-in-python</t>
+  </si>
+  <si>
+    <t>Encapsulation In Python</t>
+  </si>
+  <si>
+    <t>fanstatic</t>
+  </si>
+  <si>
+    <t>Name Mangling = as _Classname__Var</t>
+  </si>
+  <si>
+    <t>print(person.__age)</t>
+  </si>
+  <si>
+    <t>AttributeError: 'Person' object has no attribute '__age'</t>
+  </si>
+  <si>
+    <t>class Person:
+    def __init__(self, name, age=0):
+        self.name = name
+        self.__age = age
+    def display(self):
+        print(self.name)
+        print(self.__age)
+person = Person('Dev', 30)
+#accessing using class method
+person.display()
+#accessing directly from outside
+print('Trying to access variables from outside the class ')
+print(person.name)
+print(person.__age)</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>@property (getter, setter), __maglingVar</t>
+  </si>
+  <si>
+    <t>PolyMorphism</t>
+  </si>
+  <si>
+    <t>Operator Overloading</t>
+  </si>
+  <si>
+    <t>https://www.askpython.com/python/oops/polymorphism-in-python</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Inheritance </t>
+  </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t>Multiple Inheritance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Python Multiple Inheritance Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# first parent class 
+class Manager(object):                   
+      def __init__(self, name, idnumber): 
+            self.name = name 
+            self.idnumber = idnumber 
+# second parent class       
+class Employee(object):                 
+      def __init__(self, salary, post): 
+            self.salary = salary 
+            self.post = post 
+# inheritance from both the parent classes       
+class Person(Manager, Employee):         
+      def __init__(self, name, idnumber, salary, post, points): 
+            self.points = points 
+            Manager.__init__(self, name, idnumber) 
+            Employee.__init__(self, salary, post)    
+            print(self.salary) 
+ins = Person('Rahul', 882016, 75000, 'Assistant Manager', 560)
+Output: 75000</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiple resolution order
+(MRO)</t>
+  </si>
+  <si>
+    <t>https://www.askpython.com/python/oops/python-multiple-inheritance</t>
+  </si>
+  <si>
+    <t>https://www.askpython.com/python/operator-overloading-in-python</t>
+  </si>
+  <si>
+    <t>Python Operator Overloading</t>
+  </si>
+  <si>
+    <t>https://www.journaldev.com/15490/python-interview-questions</t>
+  </si>
+  <si>
+    <t>CLOSURE(py)</t>
+  </si>
+  <si>
+    <t>https://www.journaldev.com/14893/python-property-decorator</t>
+  </si>
+  <si>
+    <t>1 Python Decorator</t>
+  </si>
+  <si>
+    <t>Python Class Constructor – Python __init__() Function</t>
+  </si>
+  <si>
+    <t>Class Variables vs Instance Variables</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,8 +1225,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF363D50"/>
+      <name val="Var(--font-family--heading)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF141B35"/>
+      <name val="Var(--font-family--heading)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF363D50"/>
+      <name val="Var(--font-family--heading)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,8 +1293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1326,6 +1525,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1337,7 +1719,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1495,25 +1877,36 @@
     <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,15 +1916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,8 +1925,89 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -2810,6 +3275,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://stackoverflow.com/questions/10759099/difference-between-object-and-instance-in-python"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:7" s="101" customFormat="1" ht="21">
+      <c r="G6" s="100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D8"/>
@@ -2907,48 +3436,48 @@
     </row>
     <row r="2" spans="1:16384" s="47" customFormat="1">
       <c r="A2" s="46"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
     </row>
     <row r="3" spans="1:16384" s="47" customFormat="1">
       <c r="A3" s="46"/>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="49"/>
@@ -2967,22 +3496,22 @@
         <v>94</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
       <c r="R4" s="53"/>
       <c r="S4" s="53"/>
       <c r="T4" s="53"/>
@@ -3055,22 +3584,22 @@
     <row r="7" spans="1:16384" s="54" customFormat="1">
       <c r="A7" s="50"/>
       <c r="B7" s="61"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
@@ -36308,156 +36837,161 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="3:8" ht="18" thickBot="1">
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="92"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="87" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F13" s="86"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
     </row>
     <row r="14" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F14" s="86"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
     </row>
     <row r="15" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F15" s="86"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
     </row>
     <row r="16" spans="3:8" ht="15" thickBot="1">
-      <c r="F16" s="87"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="88" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
     </row>
     <row r="22" spans="6:8" s="35" customFormat="1" ht="14.4" customHeight="1">
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
     </row>
     <row r="23" spans="6:8" ht="15" customHeight="1" thickBot="1">
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
     </row>
     <row r="24" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="88" t="s">
+      <c r="G24" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="93" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="14.4" customHeight="1" thickBot="1">
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="89"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="94"/>
     </row>
     <row r="26" spans="6:8" ht="14.4" customHeight="1">
       <c r="F26" s="42"/>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="90" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="42"/>
     </row>
     <row r="27" spans="6:8" ht="14.4" customHeight="1">
       <c r="F27" s="42"/>
-      <c r="G27" s="86"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="42"/>
     </row>
     <row r="28" spans="6:8" ht="14.4" customHeight="1">
       <c r="F28" s="42"/>
-      <c r="G28" s="86"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="42"/>
     </row>
     <row r="29" spans="6:8" ht="15" customHeight="1" thickBot="1">
       <c r="F29" s="43"/>
-      <c r="G29" s="87"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="91" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G31" s="84"/>
+      <c r="G31" s="92"/>
     </row>
     <row r="32" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G32" s="84"/>
+      <c r="G32" s="92"/>
     </row>
     <row r="33" spans="7:7" ht="14.4" customHeight="1">
-      <c r="G33" s="84"/>
+      <c r="G33" s="92"/>
     </row>
     <row r="34" spans="7:7" ht="15" customHeight="1">
-      <c r="G34" s="84"/>
+      <c r="G34" s="92"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="84"/>
+      <c r="G35" s="92"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="84"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="84"/>
+      <c r="G37" s="92"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="84"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="7:7" ht="18">
       <c r="G39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="H12:H16"/>
@@ -36465,11 +36999,6 @@
     <mergeCell ref="F17:F23"/>
     <mergeCell ref="G17:G23"/>
     <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36503,52 +37032,52 @@
       <c r="L3" s="29"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="3:12" ht="15.6" customHeight="1">
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
@@ -36619,24 +37148,24 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="66" t="s">
@@ -36706,7 +37235,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="78"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="98" t="s">
         <v>165</v>
       </c>
       <c r="E8" s="66" t="s">
@@ -36714,51 +37243,51 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="D9" s="96"/>
+      <c r="D9" s="98"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="79"/>
-      <c r="D10" s="96"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="66" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="D11" s="96"/>
+      <c r="D11" s="98"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="80"/>
-      <c r="D12" s="96"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="66" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="D13" s="96"/>
+      <c r="D13" s="98"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="78"/>
-      <c r="D14" s="96"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="66" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="D15" s="96"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="D16" s="96"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="66"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="D17" s="96"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="78"/>
       <c r="C18" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="96"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="66" t="s">
         <v>167</v>
       </c>
@@ -36781,26 +37310,653 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:B6"/>
+  <dimension ref="A6:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="O28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="99" customWidth="1"/>
+    <col min="2" max="13" width="8.88671875" style="99"/>
+    <col min="14" max="14" width="26" style="99" customWidth="1"/>
+    <col min="15" max="16" width="20.6640625" style="99" customWidth="1"/>
+    <col min="17" max="17" width="27.88671875" style="99" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="99" customWidth="1"/>
+    <col min="19" max="19" width="28.77734375" style="99" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="99"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:2" s="97" customFormat="1" ht="18">
-      <c r="A6" s="97" t="s">
+    <row r="6" spans="1:19" s="81" customFormat="1">
+      <c r="A6" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="82" t="s">
         <v>170</v>
       </c>
     </row>
+    <row r="9" spans="1:19" s="81" customFormat="1">
+      <c r="B9" s="82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="81" customFormat="1">
+      <c r="A10" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="133" customFormat="1" ht="21">
+      <c r="B11" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="134"/>
+    </row>
+    <row r="12" spans="1:19" s="81" customFormat="1">
+      <c r="C12" s="82"/>
+    </row>
+    <row r="13" spans="1:19" s="81" customFormat="1">
+      <c r="C13" s="82"/>
+    </row>
+    <row r="14" spans="1:19" s="81" customFormat="1">
+      <c r="C14" s="82"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="Q15" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="103" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A17" s="105"/>
+      <c r="C17" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="N17" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="120" t="s">
+        <v>190</v>
+      </c>
+      <c r="S17" s="120" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1">
+      <c r="D18" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="N18" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="P18" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" s="116"/>
+      <c r="S18" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="36">
+      <c r="D19" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19" s="125"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="D20" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="N20" s="125"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="112"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="N21" s="125"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="R21" s="110"/>
+      <c r="S21" s="112"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="D22" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="112"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="112"/>
+    </row>
+    <row r="24" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="115"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="P27" s="109"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="P29" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="43.8">
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="P30" s="130" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="29.4">
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="P31" s="130" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+    </row>
+    <row r="33" spans="4:12">
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+    </row>
+    <row r="34" spans="4:12">
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+    </row>
+    <row r="35" spans="4:12">
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+    </row>
+    <row r="36" spans="4:12">
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+    </row>
+    <row r="37" spans="4:12">
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+    </row>
+    <row r="38" spans="4:12">
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+    </row>
+    <row r="43" spans="4:12" ht="18" customHeight="1">
+      <c r="D43" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+    </row>
+    <row r="44" spans="4:12">
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+    </row>
+    <row r="45" spans="4:12">
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+    </row>
+    <row r="46" spans="4:12">
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+    </row>
+    <row r="47" spans="4:12">
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+    </row>
+    <row r="48" spans="4:12">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+    </row>
+    <row r="49" spans="4:12">
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+    </row>
+    <row r="50" spans="4:12">
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+    </row>
+    <row r="51" spans="4:12">
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+    </row>
+    <row r="52" spans="4:12">
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+    </row>
+    <row r="53" spans="4:12">
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+    </row>
+    <row r="54" spans="4:12">
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+    </row>
+    <row r="55" spans="4:12">
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+    </row>
+    <row r="56" spans="4:12">
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+    </row>
+    <row r="57" spans="4:12">
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+    </row>
+    <row r="58" spans="4:12">
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+    </row>
+    <row r="59" spans="4:12">
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+    </row>
+    <row r="60" spans="4:12">
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+    </row>
+    <row r="61" spans="4:12">
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+    </row>
+    <row r="62" spans="4:12">
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+    </row>
+    <row r="63" spans="4:12">
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+    </row>
+    <row r="64" spans="4:12">
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+    </row>
+    <row r="65" spans="4:12">
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+    </row>
+    <row r="66" spans="4:12">
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="D43:L66"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D22:K38"/>
+    <mergeCell ref="P18:P20"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="Q16" r:id="rId5"/>
+    <hyperlink ref="S16" r:id="rId6"/>
+    <hyperlink ref="T18" r:id="rId7"/>
+    <hyperlink ref="Q15" r:id="rId8"/>
+    <hyperlink ref="Q21" r:id="rId9" display="https://www.journaldev.com/14637/python-operator-overloading"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="P29" r:id="rId11" location="python-decorator" display="https://www.journaldev.com/14932/python-decorator-example - python-decorator"/>
+    <hyperlink ref="P30" r:id="rId12" display="https://www.askpython.com/python/oops/python-class-constructor-init-function"/>
+    <hyperlink ref="P31" r:id="rId13" location="class-variables-vs-instance-variables" tooltip="Class Variables vs Instance Variables" display="https://www.askpython.com/python/oops/python-classes-objects - class-variables-vs-instance-variables"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Python/Python_Advance.xlsx
+++ b/Python/Python_Advance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="topic" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="207">
   <si>
     <t xml:space="preserve">There are many advanced Python tutorials on the web. </t>
   </si>
@@ -931,6 +931,12 @@
   </si>
   <si>
     <t>Class Variables vs Instance Variables</t>
+  </si>
+  <si>
+    <t>ALL BEST ADVANCE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCCezIgC97PvUuR4_gbFUs5g</t>
   </si>
 </sst>
 </file>
@@ -1879,52 +1885,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1937,15 +1897,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1957,35 +1911,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2008,6 +1935,85 @@
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -3285,11 +3291,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="99"/>
+    <col min="1" max="16384" width="8.88671875" style="83"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="86" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3323,11 +3329,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="99"/>
+    <col min="1" max="16384" width="8.88671875" style="83"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:7" s="101" customFormat="1" ht="21">
-      <c r="G6" s="100" t="s">
+    <row r="6" spans="7:7" s="85" customFormat="1" ht="21">
+      <c r="G6" s="84" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3341,10 +3347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D8"/>
+  <dimension ref="B3:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3385,15 +3391,24 @@
         <v>103</v>
       </c>
     </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D8" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3436,48 +3451,48 @@
     </row>
     <row r="2" spans="1:16384" s="47" customFormat="1">
       <c r="A2" s="46"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
     </row>
     <row r="3" spans="1:16384" s="47" customFormat="1">
       <c r="A3" s="46"/>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="49"/>
@@ -3496,22 +3511,22 @@
         <v>94</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
       <c r="R4" s="53"/>
       <c r="S4" s="53"/>
       <c r="T4" s="53"/>
@@ -3584,22 +3599,22 @@
     <row r="7" spans="1:16384" s="54" customFormat="1">
       <c r="A7" s="50"/>
       <c r="B7" s="61"/>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
@@ -36837,161 +36852,156 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" spans="3:8" ht="18" thickBot="1">
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="121" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F13" s="88"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F14" s="88"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
     </row>
     <row r="15" spans="3:8" ht="14.4" customHeight="1">
-      <c r="F15" s="88"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
     </row>
     <row r="16" spans="3:8" ht="15" thickBot="1">
-      <c r="F16" s="89"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
     </row>
     <row r="17" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="114" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
     </row>
     <row r="19" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
     </row>
     <row r="20" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="6:8" s="35" customFormat="1" ht="14.4" customHeight="1">
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="6:8" ht="15" customHeight="1" thickBot="1">
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
     </row>
     <row r="24" spans="6:8" ht="14.4" customHeight="1">
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="116" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="14.4" customHeight="1" thickBot="1">
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="94"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="117"/>
     </row>
     <row r="26" spans="6:8" ht="14.4" customHeight="1">
       <c r="F26" s="42"/>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="113" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="42"/>
     </row>
     <row r="27" spans="6:8" ht="14.4" customHeight="1">
       <c r="F27" s="42"/>
-      <c r="G27" s="88"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="42"/>
     </row>
     <row r="28" spans="6:8" ht="14.4" customHeight="1">
       <c r="F28" s="42"/>
-      <c r="G28" s="88"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="42"/>
     </row>
     <row r="29" spans="6:8" ht="15" customHeight="1" thickBot="1">
       <c r="F29" s="43"/>
-      <c r="G29" s="89"/>
+      <c r="G29" s="115"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="111" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G31" s="92"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="32" spans="6:8" ht="14.4" customHeight="1">
-      <c r="G32" s="92"/>
+      <c r="G32" s="112"/>
     </row>
     <row r="33" spans="7:7" ht="14.4" customHeight="1">
-      <c r="G33" s="92"/>
+      <c r="G33" s="112"/>
     </row>
     <row r="34" spans="7:7" ht="15" customHeight="1">
-      <c r="G34" s="92"/>
+      <c r="G34" s="112"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="92"/>
+      <c r="G35" s="112"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="92"/>
+      <c r="G36" s="112"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="92"/>
+      <c r="G37" s="112"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="92"/>
+      <c r="G38" s="112"/>
     </row>
     <row r="39" spans="7:7" ht="18">
       <c r="G39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="H12:H16"/>
@@ -36999,6 +37009,11 @@
     <mergeCell ref="F17:F23"/>
     <mergeCell ref="G17:G23"/>
     <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37032,52 +37047,52 @@
       <c r="L3" s="29"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="3:12" ht="15.6" customHeight="1">
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
@@ -37148,24 +37163,24 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="66" t="s">
@@ -37235,7 +37250,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="78"/>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="124" t="s">
         <v>165</v>
       </c>
       <c r="E8" s="66" t="s">
@@ -37243,51 +37258,51 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="D9" s="98"/>
+      <c r="D9" s="124"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="79"/>
-      <c r="D10" s="98"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="66" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="D11" s="98"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="80"/>
-      <c r="D12" s="98"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="66" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="D13" s="98"/>
+      <c r="D13" s="124"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="78"/>
-      <c r="D14" s="98"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="66" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="D15" s="98"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="D16" s="98"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="66"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="D17" s="98"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="78"/>
       <c r="C18" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="98"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="66" t="s">
         <v>167</v>
       </c>
@@ -37312,20 +37327,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="O28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="99" customWidth="1"/>
-    <col min="2" max="13" width="8.88671875" style="99"/>
-    <col min="14" max="14" width="26" style="99" customWidth="1"/>
-    <col min="15" max="16" width="20.6640625" style="99" customWidth="1"/>
-    <col min="17" max="17" width="27.88671875" style="99" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" style="99" customWidth="1"/>
-    <col min="19" max="19" width="28.77734375" style="99" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="99"/>
+    <col min="1" max="1" width="15.33203125" style="83" customWidth="1"/>
+    <col min="2" max="13" width="8.88671875" style="83"/>
+    <col min="14" max="14" width="26" style="83" customWidth="1"/>
+    <col min="15" max="16" width="20.6640625" style="83" customWidth="1"/>
+    <col min="17" max="17" width="27.88671875" style="83" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="83" customWidth="1"/>
+    <col min="19" max="19" width="28.77734375" style="83" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="83"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:19" s="81" customFormat="1">
@@ -37349,11 +37364,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="133" customFormat="1" ht="21">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="1:19" s="106" customFormat="1" ht="21">
+      <c r="B11" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="107"/>
     </row>
     <row r="12" spans="1:19" s="81" customFormat="1">
       <c r="C12" s="82"/>
@@ -37370,10 +37385,10 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="89" t="s">
         <v>179</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -37383,48 +37398,48 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="103" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A17" s="105"/>
-      <c r="C17" s="104" t="s">
+    <row r="17" spans="1:20" s="87" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A17" s="135"/>
+      <c r="C17" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="N17" s="127" t="s">
+      <c r="N17" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="120" t="s">
+      <c r="O17" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="P17" s="120" t="s">
+      <c r="P17" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="Q17" s="120" t="s">
+      <c r="Q17" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="R17" s="120" t="s">
+      <c r="R17" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="S17" s="120" t="s">
+      <c r="S17" s="99" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="N18" s="124" t="s">
+      <c r="N18" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="O18" s="121" t="s">
+      <c r="O18" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="121" t="s">
+      <c r="P18" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="Q18" s="117" t="s">
+      <c r="Q18" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="116"/>
-      <c r="S18" s="128" t="s">
+      <c r="R18" s="98"/>
+      <c r="S18" s="101" t="s">
         <v>193</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -37432,504 +37447,504 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="36">
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="N19" s="125"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="129" t="s">
+      <c r="N19" s="129"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="102" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="125"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="112"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="94"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="N21" s="125"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="131" t="s">
+      <c r="N21" s="129"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="R21" s="110"/>
-      <c r="S21" s="112"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="94"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="112"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="94"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="112"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="94"/>
     </row>
     <row r="24" spans="1:20" ht="18.600000000000001" thickBot="1">
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="115"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="97"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="P27" s="109"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="P27" s="91"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
       <c r="P29" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="43.8">
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="P30" s="130" t="s">
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="P30" s="103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="29.4">
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="P31" s="130" t="s">
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="P31" s="103" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
     </row>
     <row r="33" spans="4:12">
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
     </row>
     <row r="43" spans="4:12" ht="18" customHeight="1">
-      <c r="D43" s="108" t="s">
+      <c r="D43" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="131"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="131"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="108"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
     </row>
     <row r="56" spans="4:12">
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="131"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="131"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="131"/>
+      <c r="L60" s="131"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="131"/>
+      <c r="L61" s="131"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="131"/>
+      <c r="L62" s="131"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="131"/>
+      <c r="K63" s="131"/>
+      <c r="L63" s="131"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="108"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="108"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="131"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="131"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="108"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="131"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="7">
